--- a/biology/Médecine/Opération_de_Delorme/Opération_de_Delorme.xlsx
+++ b/biology/Médecine/Opération_de_Delorme/Opération_de_Delorme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Op%C3%A9ration_de_Delorme</t>
+          <t>Opération_de_Delorme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'opération de Delorme (ou opération de Rehn-Delorme)[1] est une intervention chirurgicale mise au point par Edmond Delorme en 1900, et proposée dans la cure du prolapsus rectal[2], sous anesthésie générale ou locorégionale. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'opération de Delorme (ou opération de Rehn-Delorme) est une intervention chirurgicale mise au point par Edmond Delorme en 1900, et proposée dans la cure du prolapsus rectal, sous anesthésie générale ou locorégionale. 
 Cette recto-plastie transanale périnéale comporte trois temps :
-La mucosectomie[3] : dissection circonférentielle de la muqueuse éversée jusqu'au sommet du prolapsus ;
+La mucosectomie : dissection circonférentielle de la muqueuse éversée jusqu'au sommet du prolapsus ;
 La plicature en accordéon de la musculeuse (sous-jacente à la muqueuse) dans le canal anal et section du manchon muqueux ;
 La suture finale muco-muqueuse termino-terminale.
 </t>
